--- a/templates/TDR.xlsx
+++ b/templates/TDR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49209F-3855-41E6-89ED-547C753DBC4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBACADE-6002-4DAC-A34F-BB6EA774FB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1485" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDR" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="207">
   <si>
     <t>DONNEES EPROUVETTE</t>
   </si>
@@ -980,6 +980,9 @@
       </rPr>
       <t xml:space="preserve"> Unloading</t>
     </r>
+  </si>
+  <si>
+    <t>Running Min</t>
   </si>
 </sst>
 </file>
@@ -4204,7 +4207,7 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -4396,7 +4399,7 @@
       </c>
       <c r="N11" s="126"/>
       <c r="O11" s="126" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="P11" s="125"/>
       <c r="Q11" s="117"/>
@@ -4523,7 +4526,7 @@
       <c r="M17" s="123"/>
       <c r="N17" s="123"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75">
+    <row r="18" spans="1:18" ht="15">
       <c r="A18" s="275" t="s">
         <v>174</v>
       </c>
@@ -4626,7 +4629,7 @@
       </c>
       <c r="P20" s="275"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="13.15">
       <c r="A21" s="278" t="s">
         <v>205</v>
       </c>
@@ -4668,7 +4671,7 @@
       <c r="I22" s="123"/>
       <c r="J22" s="123"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75">
+    <row r="23" spans="1:18" ht="15">
       <c r="A23" s="285" t="s">
         <v>118</v>
       </c>
@@ -4704,7 +4707,7 @@
       <c r="I24" s="123"/>
       <c r="J24" s="123"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75">
+    <row r="25" spans="1:18" ht="15">
       <c r="A25" s="122" t="s">
         <v>117</v>
       </c>
@@ -4736,7 +4739,7 @@
       <c r="O25" s="122"/>
       <c r="P25" s="122"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="13.15">
       <c r="A26" s="122" t="s">
         <v>40</v>
       </c>
@@ -4778,7 +4781,7 @@
       </c>
       <c r="P26" s="122"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="13.15">
       <c r="A27" s="122" t="s">
         <v>113</v>
       </c>
@@ -4920,7 +4923,7 @@
       <c r="Q33" s="117"/>
       <c r="R33" s="114"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" ht="13.15">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
@@ -5216,7 +5219,7 @@
       <c r="R47" s="114"/>
     </row>
     <row r="48" spans="1:18" ht="6" customHeight="1"/>
-    <row r="49" spans="1:16" ht="15.75">
+    <row r="49" spans="1:16" ht="15">
       <c r="A49" s="119" t="s">
         <v>112</v>
       </c>
@@ -5244,7 +5247,7 @@
       <c r="O50" s="127"/>
       <c r="P50" s="127"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25">
+    <row r="51" spans="1:16" ht="14.65">
       <c r="A51" s="133" t="s">
         <v>111</v>
       </c>
@@ -5272,7 +5275,7 @@
       </c>
       <c r="P51" s="122"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" ht="13.15">
       <c r="A52" s="131" t="s">
         <v>107</v>
       </c>
@@ -5346,7 +5349,7 @@
       </c>
       <c r="P53" s="122"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" ht="13.15">
       <c r="A54" s="131" t="s">
         <v>102</v>
       </c>
@@ -5376,7 +5379,7 @@
       <c r="A55" s="117"/>
       <c r="C55" s="117"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75">
+    <row r="56" spans="1:16" ht="15">
       <c r="A56" s="119" t="s">
         <v>94</v>
       </c>
@@ -5609,7 +5612,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
@@ -6180,7 +6183,7 @@
       <c r="J40" s="295"/>
       <c r="K40" s="296"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="48"/>
       <c r="B41" s="16"/>
       <c r="C41" s="104"/>
@@ -6226,7 +6229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+    <row r="43" spans="1:14" ht="15.4" thickBot="1">
       <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" thickBot="1">
@@ -6432,7 +6435,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="49" customWidth="1"/>
     <col min="2" max="2" width="10" style="49" customWidth="1"/>
@@ -6998,7 +7001,7 @@
       <c r="J40" s="220"/>
       <c r="K40" s="219"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="218" t="s">
         <v>156</v>
       </c>
@@ -7378,7 +7381,7 @@
       </c>
       <c r="K63" s="167"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="164"/>
       <c r="B64" s="162"/>
       <c r="C64" s="162" t="s">
@@ -7433,7 +7436,7 @@
       </c>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75">
+    <row r="68" spans="1:11" ht="15">
       <c r="A68" s="164"/>
       <c r="B68" s="162"/>
       <c r="C68" s="162" t="s">
@@ -7502,7 +7505,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0" top="0.39370078740157499" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;6 65-21-02 27_F 12 Jul 17</oddHeader>
   </headerFooter>
@@ -7521,7 +7524,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="49" customWidth="1"/>
     <col min="2" max="2" width="10" style="49" customWidth="1"/>
@@ -8088,7 +8091,7 @@
       <c r="J40" s="220"/>
       <c r="K40" s="219"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="218" t="s">
         <v>156</v>
       </c>
@@ -8496,7 +8499,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0" top="0.39370078740157499" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;6 65-21-02 27_F 12 Jul 17</oddHeader>
   </headerFooter>
@@ -8515,7 +8518,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
@@ -9172,7 +9175,7 @@
       <c r="J40" s="295"/>
       <c r="K40" s="296"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="48"/>
       <c r="B41" s="16"/>
       <c r="C41" s="104"/>
@@ -9218,7 +9221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+    <row r="43" spans="1:14" ht="15.4" thickBot="1">
       <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" thickBot="1">
@@ -9417,7 +9420,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
@@ -9882,7 +9885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.5">
+    <row r="29" spans="1:14">
       <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.5">
+    <row r="31" spans="1:14">
       <c r="A31" s="18"/>
       <c r="F31" s="31"/>
       <c r="H31" s="6" t="s">
@@ -10070,7 +10073,7 @@
       <c r="J40" s="295"/>
       <c r="K40" s="296"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="48"/>
       <c r="B41" s="16"/>
       <c r="C41" s="104"/>
@@ -10116,7 +10119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickBot="1">
+    <row r="43" spans="1:14" ht="15.4" thickBot="1">
       <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="13.5" thickBot="1">
